--- a/Raw_data_cleaned/Virginia/Virginia10-2.xlsx
+++ b/Raw_data_cleaned/Virginia/Virginia10-2.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Virginia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE5F3E7-F3B9-4A53-AD13-B43E0B40DFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76F102DD-935C-427B-A8C2-E338A134879F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="1920" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="2690" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -368,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE459"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AD31" sqref="A1:BE459"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:BE459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -79783,5 +79773,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>